--- a/biology/Botanique/Urceola_(champignon)/Urceola_(champignon).xlsx
+++ b/biology/Botanique/Urceola_(champignon)/Urceola_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Urceola est un genre de champignons ascomycètes de l'ordre des Helotiales. Son placement au sein d'une famille est incertain (incertae sedis). Le genre a été décrit par le mycologue français Lucien Quélet en 1886.
 </t>
@@ -511,9 +523,11 @@
           <t>Statut nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Urceola Quél., 1886 est un nom illégitime (nom. illeg.)[1], en raison de l’existence antérieure du genre de plantes Urceola Roxb., 1799.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urceola Quél., 1886 est un nom illégitime (nom. illeg.), en raison de l’existence antérieure du genre de plantes Urceola Roxb., 1799.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (23 février 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (23 février 2021) :
 Urceola arenula
 Urceola atrata
 Urceola chailletii
@@ -598,7 +614,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Quélet L., 1886. Enchiridion Fungorum in Europa media et praesertim in Gallia Vigentium. p. 320.</t>
         </is>
